--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.0557327013389</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H2">
-        <v>53.0557327013389</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I2">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J2">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>906.5171700815849</v>
+        <v>3780.116336147095</v>
       </c>
       <c r="R2">
-        <v>906.5171700815849</v>
+        <v>34021.04702532385</v>
       </c>
       <c r="S2">
-        <v>0.03435676230786377</v>
+        <v>0.1011701522827499</v>
       </c>
       <c r="T2">
-        <v>0.03435676230786377</v>
+        <v>0.1011701522827499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.0557327013389</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H3">
-        <v>53.0557327013389</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I3">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J3">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>1889.989210898358</v>
+        <v>6417.339732850234</v>
       </c>
       <c r="R3">
-        <v>1889.989210898358</v>
+        <v>57756.05759565211</v>
       </c>
       <c r="S3">
-        <v>0.07163009397540473</v>
+        <v>0.1717521844008497</v>
       </c>
       <c r="T3">
-        <v>0.07163009397540473</v>
+        <v>0.1717521844008497</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.0557327013389</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H4">
-        <v>53.0557327013389</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I4">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J4">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>811.0740991982822</v>
+        <v>2760.412514870882</v>
       </c>
       <c r="R4">
-        <v>811.0740991982822</v>
+        <v>24843.71263383793</v>
       </c>
       <c r="S4">
-        <v>0.03073949502546346</v>
+        <v>0.0738790369550755</v>
       </c>
       <c r="T4">
-        <v>0.03073949502546346</v>
+        <v>0.0738790369550755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>238.374216152697</v>
+        <v>239.807332</v>
       </c>
       <c r="H5">
-        <v>238.374216152697</v>
+        <v>719.421996</v>
       </c>
       <c r="I5">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J5">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>4072.892953219092</v>
+        <v>5059.77675210399</v>
       </c>
       <c r="R5">
-        <v>4072.892953219092</v>
+        <v>45537.99076893591</v>
       </c>
       <c r="S5">
-        <v>0.1543615716473722</v>
+        <v>0.135418685301319</v>
       </c>
       <c r="T5">
-        <v>0.1543615716473722</v>
+        <v>0.135418685301319</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>238.374216152697</v>
+        <v>239.807332</v>
       </c>
       <c r="H6">
-        <v>238.374216152697</v>
+        <v>719.421996</v>
       </c>
       <c r="I6">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J6">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>8491.536611529655</v>
+        <v>8589.763780583638</v>
       </c>
       <c r="R6">
-        <v>8491.536611529655</v>
+        <v>77307.87402525275</v>
       </c>
       <c r="S6">
-        <v>0.3218270040760408</v>
+        <v>0.2298944351115548</v>
       </c>
       <c r="T6">
-        <v>0.3218270040760408</v>
+        <v>0.2298944351115548</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>238.374216152697</v>
+        <v>239.807332</v>
       </c>
       <c r="H7">
-        <v>238.374216152697</v>
+        <v>719.421996</v>
       </c>
       <c r="I7">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J7">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>3644.07657371333</v>
+        <v>3694.878629898627</v>
       </c>
       <c r="R7">
-        <v>3644.07657371333</v>
+        <v>33253.90766908764</v>
       </c>
       <c r="S7">
-        <v>0.138109543654265</v>
+        <v>0.09888887018597209</v>
       </c>
       <c r="T7">
-        <v>0.138109543654265</v>
+        <v>0.0988888701859721</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>96.6132644219299</v>
+        <v>97.63589966666666</v>
       </c>
       <c r="H8">
-        <v>96.6132644219299</v>
+        <v>292.907699</v>
       </c>
       <c r="I8">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="J8">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>1650.746839161107</v>
+        <v>2060.053173454086</v>
       </c>
       <c r="R8">
-        <v>1650.746839161107</v>
+        <v>18540.47856108678</v>
       </c>
       <c r="S8">
-        <v>0.06256287101369672</v>
+        <v>0.05513478283087479</v>
       </c>
       <c r="T8">
-        <v>0.06256287101369672</v>
+        <v>0.0551347828308748</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>96.6132644219299</v>
+        <v>97.63589966666666</v>
       </c>
       <c r="H9">
-        <v>96.6132644219299</v>
+        <v>292.907699</v>
       </c>
       <c r="I9">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="J9">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>3441.626721376137</v>
+        <v>3497.263022139087</v>
       </c>
       <c r="R9">
-        <v>3441.626721376137</v>
+        <v>31475.36719925178</v>
       </c>
       <c r="S9">
-        <v>0.1304367475004039</v>
+        <v>0.09359993213417167</v>
       </c>
       <c r="T9">
-        <v>0.1304367475004039</v>
+        <v>0.09359993213417168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>96.6132644219299</v>
+        <v>97.63589966666666</v>
       </c>
       <c r="H10">
-        <v>96.6132644219299</v>
+        <v>292.907699</v>
       </c>
       <c r="I10">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="J10">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>1476.94721044998</v>
+        <v>1504.344325841101</v>
       </c>
       <c r="R10">
-        <v>1476.94721044998</v>
+        <v>13539.09893256991</v>
       </c>
       <c r="S10">
-        <v>0.05597591079948943</v>
+        <v>0.04026192079743248</v>
       </c>
       <c r="T10">
-        <v>0.05597591079948943</v>
+        <v>0.04026192079743248</v>
       </c>
     </row>
   </sheetData>
